--- a/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
+++ b/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ข้อมูลอาจารย์ปกรณ์\งานแผนก\21-แผนการเรียน+ตารางสอน+โหลด\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BD4289-1178-4D6D-819C-C6BDF5A0ABB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3162917A-30AB-403E-9BE6-01FD81581159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="748" activeTab="2" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
   </bookViews>
   <sheets>
     <sheet name="x" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="257">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -806,13 +803,22 @@
   </si>
   <si>
     <t>ที่ นศ. ต้องเรียน</t>
+  </si>
+  <si>
+    <t>จำนวนคนที่เทียบได้</t>
+  </si>
+  <si>
+    <t>จำนวนนักศึกษาที่เรียน</t>
+  </si>
+  <si>
+    <t>ปี 2  2/2568 รหัส 67</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -859,8 +865,19 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +974,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -1042,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1128,10 +1151,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,18 +1185,15 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1187,9 +1223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีม Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1227,7 +1263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1333,7 +1369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,7 +1511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1485,60 +1521,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C567F-17C5-4391-A5D0-A9268C047E48}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:D92"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="28.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="3.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" style="1"/>
+    <col min="10" max="10" width="3.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="33" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
-    <col min="16" max="16" width="34.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="37.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="8.81640625" style="1"/>
+    <col min="16" max="16" width="34.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="37.453125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H1" s="2">
         <v>135</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
@@ -1563,18 +1599,18 @@
         <f>D10+D22+D34</f>
         <v>68</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
@@ -1669,11 +1705,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="L5" s="19" t="s">
         <v>119</v>
       </c>
@@ -1854,13 +1890,13 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="G12" s="16" t="s">
         <v>91</v>
       </c>
@@ -1889,18 +1925,18 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
@@ -1916,11 +1952,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
       <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
@@ -2084,19 +2120,19 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="33">
         <v>1</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="1" t="s">
         <v>235</v>
       </c>
@@ -2161,11 +2197,11 @@
       <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="L21" s="20" t="s">
         <v>149</v>
       </c>
@@ -2225,13 +2261,13 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
       <c r="G24" s="16" t="s">
         <v>91</v>
       </c>
@@ -2474,13 +2510,13 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="40"/>
       <c r="P36" s="19" t="s">
         <v>195</v>
       </c>
@@ -2681,13 +2717,13 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="32" t="s">
+      <c r="A48" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
       <c r="P48" s="20" t="s">
         <v>207</v>
       </c>
@@ -2871,13 +2907,13 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
       <c r="P60" s="20" t="s">
         <v>219</v>
       </c>
@@ -2913,18 +2949,18 @@
         <v>1</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="K62" s="31" t="s">
+      <c r="K62" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="13" t="s">
@@ -3049,13 +3085,13 @@
       <c r="E70" s="2"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="34"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
@@ -3101,13 +3137,13 @@
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="32" t="s">
+      <c r="A76" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="34"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
@@ -3168,13 +3204,13 @@
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="32" t="s">
+      <c r="A82" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="34"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
@@ -3245,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="36" t="s">
+      <c r="F92" s="41" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3263,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="25"/>
-      <c r="F93" s="36"/>
+      <c r="F93" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -3294,27 +3330,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B38FB-02E2-4AA7-B572-0304DC4CC1CA}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -3411,19 +3447,19 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="31">
         <v>1</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="13" t="s">
@@ -3468,19 +3504,19 @@
       <c r="E11" s="3"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="31">
         <v>2</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="32" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3489,36 +3525,45 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E088B-FBE9-40F4-A2C6-A66F2B390ED8}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3534,8 +3579,10 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -3549,8 +3596,14 @@
         <v>3</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -3564,8 +3617,14 @@
         <v>3</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -3579,8 +3638,14 @@
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="36">
+        <v>10</v>
+      </c>
+      <c r="G5" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -3596,8 +3661,14 @@
       <c r="E6" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="36">
+        <v>0</v>
+      </c>
+      <c r="G6" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -3611,23 +3682,35 @@
         <v>4</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="20" t="s">
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="33">
         <v>1</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="33"/>
+      <c r="F8" s="36">
+        <v>0</v>
+      </c>
+      <c r="G8" s="36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
@@ -3641,8 +3724,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="36">
+        <v>1</v>
+      </c>
+      <c r="G9" s="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -3658,8 +3747,14 @@
       <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="36">
+        <v>10</v>
+      </c>
+      <c r="G10" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3668,26 +3763,34 @@
         <v>23</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="20" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B13" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C13" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D13" s="33">
         <v>2</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E13" s="34" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="18" spans="9:9">
-      <c r="I18" t="s">
+      <c r="F13" s="36">
+        <v>11</v>
+      </c>
+      <c r="G13" s="36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9">
+      <c r="I17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3703,28 +3806,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637B0FA0-2211-4639-A5FE-D96CCE1C527B}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -3812,19 +3915,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>69</v>
+        <v>47</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="2">
         <v>3</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F7" s="28"/>
     </row>
@@ -3898,28 +4001,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45909BF8-5000-49EF-9736-B36D3C47EFEF}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -4102,28 +4205,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE7C89-550B-4B34-AF8F-A807978523C7}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -4246,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
@@ -4254,7 +4357,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
@@ -4280,28 +4383,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB163A55-768B-4FEA-BC27-1BB20EFDB29C}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
@@ -4363,23 +4466,23 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">

--- a/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
+++ b/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3162917A-30AB-403E-9BE6-01FD81581159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327BA7D-B194-4033-9209-E50DDAC2A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="748" activeTab="2" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="274">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -781,9 +781,6 @@
     <t>ENGEE102</t>
   </si>
   <si>
-    <t>ปี2 รหัส 67</t>
-  </si>
-  <si>
     <t>เด็กเทียบโอนอาจจะลงเพิ่มเทอม 1/68</t>
   </si>
   <si>
@@ -796,9 +793,6 @@
     <t>ENGEE502</t>
   </si>
   <si>
-    <t>ปี 3 2/2566</t>
-  </si>
-  <si>
     <t>เฉพาะห้องน่านฟ้า</t>
   </si>
   <si>
@@ -811,14 +805,71 @@
     <t>จำนวนนักศึกษาที่เรียน</t>
   </si>
   <si>
-    <t>ปี 2  2/2568 รหัส 67</t>
+    <t>จำนวนนักศึกษา (8)</t>
+  </si>
+  <si>
+    <t>จำนวนนักศึกษา (15)</t>
+  </si>
+  <si>
+    <t>จำนวนนักศึกษา (7)</t>
+  </si>
+  <si>
+    <t>จำนวนนักศึกษา (10)</t>
+  </si>
+  <si>
+    <t>นุรัก</t>
+  </si>
+  <si>
+    <t>ปกรณ์</t>
+  </si>
+  <si>
+    <t>แตงโม</t>
+  </si>
+  <si>
+    <t>ปกร</t>
+  </si>
+  <si>
+    <t>สิทธิชัย</t>
+  </si>
+  <si>
+    <t>อ้วน</t>
+  </si>
+  <si>
+    <t>น้อย</t>
+  </si>
+  <si>
+    <t>อศ.</t>
+  </si>
+  <si>
+    <t>ปภาส</t>
+  </si>
+  <si>
+    <t>โจ</t>
+  </si>
+  <si>
+    <t>ปี 2  2/2568 รหัส 67 (4 ปี)</t>
+  </si>
+  <si>
+    <t>ปี 2  2/2568 รหัส 67 (เทียบโอน)</t>
+  </si>
+  <si>
+    <t>อ้วย</t>
+  </si>
+  <si>
+    <t>ปี 3 2/2568 รหัส 66 (4 ปี)</t>
+  </si>
+  <si>
+    <t>กุ้ง</t>
+  </si>
+  <si>
+    <t>ปี 3 2/2568 รหัส 66 (เทียบโอน)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,26 +909,70 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+      <charset val="222"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Angsana New"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,8 +1075,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1061,11 +1162,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1148,62 +1263,134 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{49E5AEB9-E298-424F-AC0C-A59505033256}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFD9D9D9"/>
       <color rgb="FFFFFF00"/>
       <color rgb="FF00FF00"/>
       <color rgb="FFCC9900"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFCCCCFF"/>
@@ -1521,7 +1708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9C567F-17C5-4391-A5D0-A9268C047E48}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1550,31 +1737,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H1" s="2">
         <v>135</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
@@ -1599,18 +1786,18 @@
         <f>D10+D22+D34</f>
         <v>68</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
@@ -1705,11 +1892,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
       <c r="L5" s="19" t="s">
         <v>119</v>
       </c>
@@ -1890,13 +2077,13 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
       <c r="G12" s="16" t="s">
         <v>91</v>
       </c>
@@ -1925,18 +2112,18 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
@@ -1952,11 +2139,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
@@ -2120,19 +2307,19 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="29">
         <v>1</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="1" t="s">
         <v>235</v>
       </c>
@@ -2197,11 +2384,11 @@
       <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
       <c r="L21" s="20" t="s">
         <v>149</v>
       </c>
@@ -2261,13 +2448,13 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
       <c r="G24" s="16" t="s">
         <v>91</v>
       </c>
@@ -2312,7 +2499,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
@@ -2510,13 +2697,13 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="40"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33"/>
       <c r="P36" s="19" t="s">
         <v>195</v>
       </c>
@@ -2608,7 +2795,7 @@
       <c r="B41" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="28" t="s">
         <v>67</v>
       </c>
       <c r="D41" s="10">
@@ -2616,7 +2803,7 @@
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P41" s="20" t="s">
         <v>200</v>
@@ -2717,13 +2904,13 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="40"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
       <c r="P48" s="20" t="s">
         <v>207</v>
       </c>
@@ -2844,7 +3031,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>61</v>
@@ -2907,13 +3094,13 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="31" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="40"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33"/>
       <c r="P60" s="20" t="s">
         <v>219</v>
       </c>
@@ -2949,18 +3136,18 @@
         <v>1</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="K62" s="37" t="s">
+      <c r="K62" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="37"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="34"/>
+      <c r="T62" s="34"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="13" t="s">
@@ -2998,7 +3185,7 @@
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L64" s="20" t="s">
         <v>223</v>
@@ -3085,13 +3272,13 @@
       <c r="E70" s="2"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="40"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="33"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
@@ -3137,13 +3324,13 @@
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="40"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="33"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
@@ -3204,13 +3391,13 @@
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="38" t="s">
+      <c r="A82" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="40"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="33"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
@@ -3281,8 +3468,8 @@
         <v>1</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="41" t="s">
-        <v>252</v>
+      <c r="F92" s="30" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3299,17 +3486,10 @@
         <v>2</v>
       </c>
       <c r="E93" s="25"/>
-      <c r="F93" s="41"/>
+      <c r="F93" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A76:E76"/>
     <mergeCell ref="K62:T62"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G14:I14"/>
@@ -3320,6 +3500,13 @@
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="K13:T13"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3328,22 +3515,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B38FB-02E2-4AA7-B572-0304DC4CC1CA}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="37" t="s">
         <v>232</v>
       </c>
@@ -3352,174 +3540,169 @@
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="50">
+        <v>3</v>
+      </c>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="D4" s="50">
+        <v>3</v>
+      </c>
+      <c r="E4" s="50"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="D5" s="50">
+        <v>3</v>
+      </c>
+      <c r="E5" s="50"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="50">
+        <v>3</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="50">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="31" t="s">
+      <c r="E7" s="50"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="65">
+        <v>2</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="50">
+        <v>3</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="50">
+        <v>3</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50">
+        <f>SUM(D3:D10)</f>
         <v>24</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="19">
-        <f>SUM(D3:D10)</f>
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="31">
-        <v>2</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>253</v>
-      </c>
-    </row>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="14" spans="1:6" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3531,466 +3714,503 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E088B-FBE9-40F4-A2C6-A66F2B390ED8}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="36">
+      <c r="D3" s="65">
+        <v>3</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="40">
         <v>0</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="40">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="36">
+    <row r="4" spans="1:8">
+      <c r="A4" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="50">
+        <v>2</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="40">
+        <v>11</v>
+      </c>
+      <c r="G4" s="40">
+        <v>8</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="65">
+        <v>3</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="40">
         <v>0</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G5" s="40">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="2" t="s">
+      <c r="H5" s="38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="36">
+      <c r="D6" s="50">
+        <v>3</v>
+      </c>
+      <c r="E6" s="65"/>
+      <c r="F6" s="40">
         <v>10</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G6" s="40">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:8" ht="23.5" customHeight="1">
+      <c r="A7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D7" s="65">
+        <v>3</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F7" s="40">
         <v>0</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G7" s="40">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="65">
         <v>4</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="36">
+      <c r="E8" s="65"/>
+      <c r="F8" s="40">
         <v>1</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G8" s="40">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="33" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="65">
+        <v>3</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="40">
+        <v>1</v>
+      </c>
+      <c r="G9" s="40">
+        <v>18</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="65">
+        <v>3</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40">
+        <v>19</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42">
+        <f>SUM(D3:D10)</f>
         <v>24</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="33">
-        <v>1</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="36">
-        <v>0</v>
-      </c>
-      <c r="G8" s="36">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="A9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="36">
-        <v>1</v>
-      </c>
-      <c r="G9" s="36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="36">
-        <v>10</v>
-      </c>
-      <c r="G10" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="19">
-        <f>SUM(D3:D10)</f>
-        <v>23</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="33">
-        <v>2</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="36">
-        <v>11</v>
-      </c>
-      <c r="G13" s="36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9">
-      <c r="I17" t="s">
-        <v>246</v>
-      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637B0FA0-2211-4639-A5FE-D96CCE1C527B}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="24">
+      <c r="A1" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="47" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="24">
+      <c r="A3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="35">
+        <v>3</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="46">
+        <v>8</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="35">
+        <v>3</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="46">
+        <v>8</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24">
+      <c r="A5" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="35">
+        <v>3</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="F5" s="46">
+        <v>8</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24">
+      <c r="A6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="10">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="33" t="s">
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
+      <c r="A7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="35">
+        <v>3</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="46">
+        <v>8</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
+      <c r="A8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="46">
+        <v>8</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24">
+      <c r="A9" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="46">
+        <v>8</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24">
+      <c r="A10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="20">
+      <c r="D10" s="35">
+        <v>3</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="49">
         <f>SUM(D3:D10)</f>
         <v>24</v>
       </c>
-      <c r="E11" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3999,203 +4219,214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45909BF8-5000-49EF-9736-B36D3C47EFEF}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="24">
+      <c r="A1" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24">
+      <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="24">
+      <c r="A3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="35">
+        <v>3</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="46">
+        <v>7</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="35">
+        <v>3</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="46">
+        <v>7</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24">
+      <c r="A5" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="35">
+        <v>3</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+      <c r="F5" s="46">
+        <v>15</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24">
+      <c r="A6" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="10">
-        <v>3</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
+      <c r="D6" s="35">
+        <v>3</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
+      <c r="A7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="35">
+        <v>3</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="46">
+        <v>15</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
+      <c r="A8" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+      <c r="F8" s="46">
+        <v>15</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24">
+      <c r="A9" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B9" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="20">
-        <f>SUM(D3:D10)</f>
-        <v>24</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="19">
-        <f>SUM(D2:D10)</f>
-        <v>24</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="D9" s="35">
+        <v>3</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="D10" s="49">
+        <f>SUM(D3:D9)</f>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4203,176 +4434,186 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE7C89-550B-4B34-AF8F-A807978523C7}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:7" ht="24">
+      <c r="A1" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:7" ht="24">
+      <c r="A3" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="50">
         <v>1</v>
       </c>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="61">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="50">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="20" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="61">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24">
+      <c r="A5" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="50">
         <v>2</v>
       </c>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="61">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24">
+      <c r="A6" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="50">
+        <v>3</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
+      <c r="A7" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="50">
+        <v>3</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
+      <c r="A8" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="42"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="20">
-        <f>SUM(D3:D10)</f>
-        <v>14</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="D8" s="50">
+        <v>3</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="61">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55">
+        <f>SUM(D3:D8)</f>
+        <v>13</v>
+      </c>
+      <c r="E9" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4381,77 +4622,186 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB163A55-768B-4FEA-BC27-1BB20EFDB29C}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08984375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.90625" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="38"/>
+    <col min="8" max="8" width="8.453125" style="38" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="38" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="57" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50">
+        <v>3</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50">
+        <v>3</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50">
+        <v>3</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="50">
+        <v>3</v>
+      </c>
+      <c r="E6" s="50"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="50">
+        <v>3</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B8" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C8" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D8" s="50">
+        <v>3</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="20">
-        <v>3</v>
-      </c>
-      <c r="E4" s="21"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50">
+        <f>SUM(D3:D8)</f>
+        <v>18</v>
+      </c>
+      <c r="E9" s="53"/>
+      <c r="F9" s="63"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="H15" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4460,72 +4810,76 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659877B8-0976-4319-8E8D-B1B177180AA2}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="50">
+        <v>7</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="20">
-        <v>6</v>
-      </c>
-      <c r="E4" s="21"/>
+      <c r="F3" s="36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50">
+        <v>7</v>
+      </c>
+      <c r="E4" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
+++ b/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327BA7D-B194-4033-9209-E50DDAC2A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E81BD6-2AFF-4AC3-82CC-81B389979266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="748" activeTab="2" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="748" activeTab="1" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
   </bookViews>
   <sheets>
     <sheet name="x" sheetId="1" r:id="rId1"/>
@@ -1180,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1269,28 +1269,10 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1304,6 +1286,61 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,38 +1350,11 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1355,26 +1365,7 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,56 +1703,56 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1"/>
-    <col min="2" max="2" width="28.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.81640625" style="1"/>
-    <col min="10" max="10" width="3.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="3.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="33" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.81640625" style="1"/>
-    <col min="16" max="16" width="34.1796875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.81640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="37.453125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.81640625" style="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="34.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="37.42578125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H1" s="2">
         <v>135</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
@@ -1786,18 +1777,18 @@
         <f>D10+D22+D34</f>
         <v>68</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
@@ -1892,11 +1883,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
       <c r="L5" s="19" t="s">
         <v>119</v>
       </c>
@@ -2077,13 +2068,13 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="G12" s="16" t="s">
         <v>91</v>
       </c>
@@ -2112,18 +2103,18 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
@@ -2139,11 +2130,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="34" t="s">
+      <c r="G14" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
@@ -2384,11 +2375,11 @@
       <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="34" t="s">
+      <c r="G21" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
       <c r="L21" s="20" t="s">
         <v>149</v>
       </c>
@@ -2448,13 +2439,13 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="G24" s="16" t="s">
         <v>91</v>
       </c>
@@ -2697,13 +2688,13 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="50" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
       <c r="P36" s="19" t="s">
         <v>195</v>
       </c>
@@ -2904,13 +2895,13 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="52"/>
       <c r="P48" s="20" t="s">
         <v>207</v>
       </c>
@@ -3094,13 +3085,13 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="52"/>
       <c r="P60" s="20" t="s">
         <v>219</v>
       </c>
@@ -3136,18 +3127,18 @@
         <v>1</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="K62" s="34" t="s">
+      <c r="K62" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+      <c r="P62" s="49"/>
+      <c r="Q62" s="49"/>
+      <c r="R62" s="49"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="49"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="13" t="s">
@@ -3272,13 +3263,13 @@
       <c r="E70" s="2"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="31" t="s">
+      <c r="A72" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="33"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
@@ -3324,13 +3315,13 @@
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="33"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="52"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
@@ -3391,13 +3382,13 @@
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="31" t="s">
+      <c r="A82" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="33"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
@@ -3468,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="30" t="s">
+      <c r="F92" s="53" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3486,10 +3477,17 @@
         <v>2</v>
       </c>
       <c r="E93" s="25"/>
-      <c r="F93" s="30"/>
+      <c r="F93" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A76:E76"/>
     <mergeCell ref="K62:T62"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G14:I14"/>
@@ -3500,13 +3498,6 @@
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="K13:T13"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3517,192 +3508,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B38FB-02E2-4AA7-B572-0304DC4CC1CA}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="38"/>
+    <col min="1" max="1" width="10.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="50">
-        <v>3</v>
-      </c>
-      <c r="E3" s="50"/>
+      <c r="D3" s="33">
+        <v>3</v>
+      </c>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="50">
-        <v>3</v>
-      </c>
-      <c r="E4" s="50"/>
+      <c r="D4" s="33">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="50">
-        <v>3</v>
-      </c>
-      <c r="E5" s="50"/>
+      <c r="D5" s="33">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="50">
-        <v>3</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="33">
         <v>4</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="30">
         <v>2</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="32" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="50">
-        <v>3</v>
-      </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="38" t="s">
+      <c r="D9" s="33">
+        <v>3</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="50">
-        <v>3</v>
-      </c>
-      <c r="E10" s="53" t="s">
+      <c r="D10" s="33">
+        <v>3</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="32" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33">
         <f>SUM(D3:D10)</f>
         <v>24</v>
       </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1"/>
+      <c r="E11" s="33"/>
+    </row>
+    <row r="14" spans="1:6" ht="24.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3716,260 +3707,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E088B-FBE9-40F4-A2C6-A66F2B390ED8}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="38"/>
+    <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="40" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="34" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="65" t="s">
+      <c r="D2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="65">
-        <v>3</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="40">
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34">
         <v>0</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="33">
         <v>2</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="40">
+      <c r="E4" s="30"/>
+      <c r="F4" s="34">
         <v>11</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="34">
         <v>8</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="32" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="65">
-        <v>3</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="40">
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="34">
         <v>0</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="34">
         <v>19</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="32" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="50">
-        <v>3</v>
-      </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="40">
+      <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="34">
         <v>10</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="34">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.5" customHeight="1">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:8" ht="23.45" customHeight="1">
+      <c r="A7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="65">
-        <v>3</v>
-      </c>
-      <c r="E7" s="65" t="s">
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="34">
         <v>0</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="30">
         <v>4</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="40">
+      <c r="E8" s="30"/>
+      <c r="F8" s="34">
         <v>1</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="65">
-        <v>3</v>
-      </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="40">
+      <c r="D9" s="30">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="34">
         <v>1</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="34">
         <v>18</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="32" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="65">
-        <v>3</v>
-      </c>
-      <c r="E10" s="65" t="s">
+      <c r="D10" s="30">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="34">
         <v>0</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="34">
         <v>19</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="32" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36">
         <f>SUM(D3:D10)</f>
         <v>24</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3984,225 +3975,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637B0FA0-2211-4639-A5FE-D96CCE1C527B}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="35">
-        <v>3</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="37">
         <v>8</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="39" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="35">
-        <v>3</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="30">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="37">
         <v>8</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="39" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="35">
-        <v>3</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="37">
         <v>8</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="39" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="35">
-        <v>3</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="46">
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="37">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="35">
-        <v>3</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="37">
         <v>8</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="48" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="35">
-        <v>3</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="D8" s="30">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="37">
         <v>8</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="48" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="35">
-        <v>3</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="46">
+      <c r="D9" s="30">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="37">
         <v>8</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="48" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="35">
-        <v>3</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="46">
+      <c r="D10" s="30">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="37">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="D11" s="49">
+      <c r="D11" s="38">
         <f>SUM(D3:D10)</f>
         <v>24</v>
       </c>
@@ -4221,204 +4212,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45909BF8-5000-49EF-9736-B36D3C47EFEF}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="39" t="s">
+      <c r="D2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="35">
-        <v>3</v>
-      </c>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="30">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="37">
         <v>7</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="39" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="35">
-        <v>3</v>
-      </c>
-      <c r="E4" s="35" t="s">
+      <c r="D4" s="30">
+        <v>3</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="37">
         <v>7</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="39" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="35">
-        <v>3</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="30">
+        <v>3</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="37">
         <v>15</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="39" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="35">
-        <v>3</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="46">
+      <c r="D6" s="30">
+        <v>3</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="37">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="35">
-        <v>3</v>
-      </c>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="30">
+        <v>3</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="37">
         <v>15</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="48" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="35">
-        <v>3</v>
-      </c>
-      <c r="E8" s="35" t="s">
+      <c r="D8" s="30">
+        <v>3</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="37">
         <v>15</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="48" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="35">
-        <v>3</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="46">
+      <c r="D9" s="30">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="37">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="D10" s="49">
+      <c r="D10" s="38">
         <f>SUM(D3:D9)</f>
         <v>21</v>
       </c>
@@ -4436,18 +4427,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EE7C89-550B-4B34-AF8F-A807978523C7}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
@@ -4458,43 +4449,43 @@
       <c r="C1" s="60"/>
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="59" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="47"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="33">
         <v>1</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="61">
+      <c r="E3" s="42"/>
+      <c r="F3" s="45">
         <v>7</v>
       </c>
       <c r="G3" t="s">
@@ -4502,20 +4493,20 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="33">
         <v>1</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="61">
+      <c r="E4" s="42"/>
+      <c r="F4" s="45">
         <v>7</v>
       </c>
       <c r="G4" t="s">
@@ -4523,20 +4514,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="33">
         <v>2</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="61">
+      <c r="E5" s="42"/>
+      <c r="F5" s="45">
         <v>7</v>
       </c>
       <c r="G5" t="s">
@@ -4544,56 +4535,56 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="50">
-        <v>3</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="61">
+      <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="50">
-        <v>3</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="61">
+      <c r="D7" s="33">
+        <v>3</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="45">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="50">
-        <v>3</v>
-      </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="61">
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="45">
         <v>7</v>
       </c>
       <c r="G8" t="s">
@@ -4601,14 +4592,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="43">
         <f>SUM(D3:D8)</f>
         <v>13</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4628,175 +4619,175 @@
       <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="38"/>
-    <col min="8" max="8" width="8.453125" style="38" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="38"/>
+    <col min="1" max="1" width="10.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="32"/>
+    <col min="8" max="8" width="8.42578125" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="62" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="64"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50">
-        <v>3</v>
-      </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="38" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33">
+        <v>3</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50">
-        <v>3</v>
-      </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="38" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33">
+        <v>3</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="32" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50">
-        <v>3</v>
-      </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="38" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33">
+        <v>3</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="32" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="50">
-        <v>3</v>
-      </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="63"/>
+      <c r="D6" s="33">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="50">
-        <v>3</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="63"/>
+      <c r="D7" s="33">
+        <v>3</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="50">
-        <v>3</v>
-      </c>
-      <c r="E8" s="53" t="s">
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="38" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="32" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33">
         <f>SUM(D3:D8)</f>
         <v>18</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="63"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="H12" s="51"/>
+      <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="H13" s="52"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="H14" s="52"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="H15" s="52"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4816,70 +4807,70 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="36"/>
+    <col min="1" max="1" width="10.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="50" t="s">
+      <c r="D2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="33">
         <v>7</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="31" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33">
         <v>7</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
+++ b/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E81BD6-2AFF-4AC3-82CC-81B389979266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E4551-4EAF-42B6-9396-68F492DBB04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="748" activeTab="1" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="748" firstSheet="1" activeTab="6" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
   </bookViews>
   <sheets>
     <sheet name="x" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="274">
   <si>
     <t>รหัสวิชา</t>
   </si>
@@ -814,9 +814,6 @@
     <t>จำนวนนักศึกษา (7)</t>
   </si>
   <si>
-    <t>จำนวนนักศึกษา (10)</t>
-  </si>
-  <si>
     <t>นุรัก</t>
   </si>
   <si>
@@ -863,6 +860,9 @@
   </si>
   <si>
     <t>ปี 3 2/2568 รหัส 66 (เทียบโอน)</t>
+  </si>
+  <si>
+    <t>จำนวนนักศึกษา (11)</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,28 +1313,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,6 +1366,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1703,56 +1708,56 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="1"/>
+    <col min="2" max="2" width="28.1796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="3.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.81640625" style="1"/>
+    <col min="10" max="10" width="3.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="1" customWidth="1"/>
     <col min="14" max="14" width="33" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1"/>
-    <col min="16" max="16" width="34.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="37.42578125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="8.81640625" style="1"/>
+    <col min="16" max="16" width="34.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.81640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="37.453125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
       <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H1" s="2">
         <v>135</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
@@ -1777,18 +1782,18 @@
         <f>D10+D22+D34</f>
         <v>68</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
@@ -1883,11 +1888,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
       <c r="L5" s="19" t="s">
         <v>119</v>
       </c>
@@ -2068,13 +2073,13 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="G12" s="16" t="s">
         <v>91</v>
       </c>
@@ -2103,18 +2108,18 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="49" t="s">
+      <c r="K13" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
@@ -2130,11 +2135,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
       <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
@@ -2375,11 +2380,11 @@
       <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
       <c r="L21" s="20" t="s">
         <v>149</v>
       </c>
@@ -2439,13 +2444,13 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
       <c r="G24" s="16" t="s">
         <v>91</v>
       </c>
@@ -2688,13 +2693,13 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
       <c r="P36" s="19" t="s">
         <v>195</v>
       </c>
@@ -2895,13 +2900,13 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="52"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="51"/>
       <c r="P48" s="20" t="s">
         <v>207</v>
       </c>
@@ -3085,13 +3090,13 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="52"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
       <c r="P60" s="20" t="s">
         <v>219</v>
       </c>
@@ -3127,18 +3132,18 @@
         <v>1</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="K62" s="49" t="s">
+      <c r="K62" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="49"/>
-      <c r="O62" s="49"/>
-      <c r="P62" s="49"/>
-      <c r="Q62" s="49"/>
-      <c r="R62" s="49"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="49"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="52"/>
+      <c r="T62" s="52"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="13" t="s">
@@ -3263,13 +3268,13 @@
       <c r="E70" s="2"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="51"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
@@ -3315,13 +3320,13 @@
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="52"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="51"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
@@ -3382,13 +3387,13 @@
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="50" t="s">
+      <c r="A82" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="51"/>
-      <c r="E82" s="52"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
@@ -3459,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="53" t="s">
+      <c r="F92" s="48" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3477,17 +3482,10 @@
         <v>2</v>
       </c>
       <c r="E93" s="25"/>
-      <c r="F93" s="53"/>
+      <c r="F93" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A76:E76"/>
     <mergeCell ref="K62:T62"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G14:I14"/>
@@ -3498,6 +3496,13 @@
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="K13:T13"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3508,28 +3513,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836B38FB-02E2-4AA7-B572-0304DC4CC1CA}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="32"/>
+    <col min="4" max="4" width="7.81640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
@@ -3642,14 +3647,14 @@
         <v>251</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -3660,7 +3665,7 @@
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3680,7 +3685,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3693,7 +3698,7 @@
       </c>
       <c r="E11" s="33"/>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1"/>
+    <row r="14" spans="1:6" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -3711,26 +3716,26 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="11" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7109375" style="32"/>
+    <col min="4" max="4" width="7.81640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="34" t="s">
         <v>252</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3823,7 +3828,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3847,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.45" customHeight="1">
+    <row r="7" spans="1:8" ht="23.5" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>22</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3938,7 +3943,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3973,32 +3978,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637B0FA0-2211-4639-A5FE-D96CCE1C527B}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="56" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4018,7 +4023,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="30" t="s">
@@ -4040,7 +4045,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -4063,7 +4068,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -4086,59 +4091,53 @@
         <v>8</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
-      <c r="A6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="A6" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
         <v>3</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="37">
         <v>8</v>
       </c>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="24">
-      <c r="A7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>68</v>
+      <c r="A7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="E7" s="30"/>
       <c r="F7" s="37">
         <v>8</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="24">
-      <c r="A8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>70</v>
+      <c r="A8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="D8" s="30">
         <v>3</v>
@@ -4149,40 +4148,42 @@
       <c r="F8" s="37">
         <v>8</v>
       </c>
-      <c r="G8" s="48" t="s">
-        <v>266</v>
+      <c r="G8" s="47" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="A9" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="30">
         <v>3</v>
       </c>
-      <c r="E9" s="30"/>
+      <c r="E9" s="30" t="s">
+        <v>25</v>
+      </c>
       <c r="F9" s="37">
         <v>8</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>267</v>
+      <c r="G9" s="47" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="A10" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="30">
         <v>3</v>
@@ -4191,11 +4192,32 @@
       <c r="F10" s="37">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="38">
-        <f>SUM(D3:D10)</f>
-        <v>24</v>
+      <c r="G10" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24">
+      <c r="A11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="30">
+        <v>3</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="38">
+        <f>SUM(D3:D11)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4210,32 +4232,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45909BF8-5000-49EF-9736-B36D3C47EFEF}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4255,7 +4277,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="30" t="s">
@@ -4277,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -4300,7 +4322,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -4323,59 +4345,53 @@
         <v>15</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
-      <c r="A6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="A6" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33">
         <v>3</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="37">
         <v>15</v>
       </c>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:7" ht="24">
-      <c r="A7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>68</v>
+      <c r="A7" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="30">
         <v>3</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="E7" s="30"/>
       <c r="F7" s="37">
         <v>15</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>265</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="24">
-      <c r="A8" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>70</v>
+      <c r="A8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>68</v>
       </c>
       <c r="D8" s="30">
         <v>3</v>
@@ -4386,32 +4402,55 @@
       <c r="F8" s="37">
         <v>15</v>
       </c>
-      <c r="G8" s="48" t="s">
-        <v>266</v>
+      <c r="G8" s="47" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="A9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="30">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="37">
+        <v>15</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24">
+      <c r="A10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B10" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C10" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="30">
-        <v>3</v>
-      </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="37">
+      <c r="D10" s="30">
+        <v>3</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="37">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="D10" s="38">
-        <f>SUM(D3:D9)</f>
-        <v>21</v>
+    <row r="11" spans="1:7">
+      <c r="D11" s="38">
+        <f>SUM(D3:D10)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4428,28 +4467,28 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="59" t="s">
+      <c r="A1" s="59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="58" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4469,7 +4508,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="59"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="33" t="s">
@@ -4489,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24">
@@ -4510,7 +4549,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24">
@@ -4531,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24">
@@ -4588,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
@@ -4613,35 +4652,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB163A55-768B-4FEA-BC27-1BB20EFDB29C}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="32"/>
-    <col min="8" max="8" width="8.42578125" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="32"/>
+    <col min="1" max="1" width="10.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="32"/>
+    <col min="8" max="8" width="8.453125" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4660,7 +4699,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="33" t="s">
@@ -4674,9 +4713,11 @@
         <v>3</v>
       </c>
       <c r="E3" s="33"/>
-      <c r="F3" s="46"/>
+      <c r="F3" s="65">
+        <v>11</v>
+      </c>
       <c r="G3" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4691,9 +4732,9 @@
         <v>3</v>
       </c>
       <c r="E4" s="33"/>
-      <c r="F4" s="46"/>
+      <c r="F4" s="65"/>
       <c r="G4" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4708,9 +4749,9 @@
         <v>3</v>
       </c>
       <c r="E5" s="33"/>
-      <c r="F5" s="46"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4727,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="33"/>
-      <c r="F6" s="46"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="33" t="s">
@@ -4743,51 +4784,67 @@
         <v>3</v>
       </c>
       <c r="E7" s="33"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="33">
+        <v>3</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="65"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B9" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C9" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="33">
-        <v>3</v>
-      </c>
-      <c r="E8" s="42" t="s">
+      <c r="D9" s="33">
+        <v>3</v>
+      </c>
+      <c r="E9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33">
-        <f>SUM(D3:D8)</f>
-        <v>18</v>
-      </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="46"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="H12" s="40"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33">
+        <f>SUM(D3:D9)</f>
+        <v>21</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="H13" s="41"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8">
       <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:8">
       <c r="H15" s="41"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="H16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4807,24 +4864,24 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="24"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="31"/>
+    <col min="1" max="1" width="10.453125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
@@ -4860,7 +4917,7 @@
         <v>99</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:6">

--- a/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
+++ b/RMUTL_DOCUMENT/ตารางสอน/2568/1-68/แผนการเรียนตลอดหลักสูตร/แผนการเรียนตลอดหลักสูตร-คพ.-รหัส-68 เทอม 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\RMUTL_DOCUMENT\ตารางสอน\2568\1-68\แผนการเรียนตลอดหลักสูตร\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10E4551-4EAF-42B6-9396-68F492DBB04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9697131C-960F-4424-9CA7-23231B4EE4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="748" firstSheet="1" activeTab="6" xr2:uid="{1A66C089-0926-4A9E-BE16-6ADE39AC74B7}"/>
   </bookViews>
@@ -1319,59 +1319,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1733,31 +1733,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
       <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H1" s="2">
         <v>135</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="2" t="s">
@@ -1782,18 +1782,18 @@
         <f>D10+D22+D34</f>
         <v>68</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
@@ -1888,11 +1888,11 @@
         <v>3</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
       <c r="L5" s="19" t="s">
         <v>119</v>
       </c>
@@ -2073,13 +2073,13 @@
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
       <c r="G12" s="16" t="s">
         <v>91</v>
       </c>
@@ -2108,18 +2108,18 @@
       <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
@@ -2135,11 +2135,11 @@
         <v>3</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
       <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
@@ -2380,11 +2380,11 @@
       <c r="E21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="52" t="s">
+      <c r="G21" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
       <c r="L21" s="20" t="s">
         <v>149</v>
       </c>
@@ -2444,13 +2444,13 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
       <c r="G24" s="16" t="s">
         <v>91</v>
       </c>
@@ -2693,13 +2693,13 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
       <c r="P36" s="19" t="s">
         <v>195</v>
       </c>
@@ -2900,13 +2900,13 @@
       </c>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="51"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53"/>
       <c r="P48" s="20" t="s">
         <v>207</v>
       </c>
@@ -3090,13 +3090,13 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="51"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="53"/>
       <c r="P60" s="20" t="s">
         <v>219</v>
       </c>
@@ -3132,18 +3132,18 @@
         <v>1</v>
       </c>
       <c r="E62" s="11"/>
-      <c r="K62" s="52" t="s">
+      <c r="K62" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
-      <c r="R62" s="52"/>
-      <c r="S62" s="52"/>
-      <c r="T62" s="52"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="50"/>
+      <c r="O62" s="50"/>
+      <c r="P62" s="50"/>
+      <c r="Q62" s="50"/>
+      <c r="R62" s="50"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="50"/>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="13" t="s">
@@ -3268,13 +3268,13 @@
       <c r="E70" s="2"/>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="51"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="53"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="2" t="s">
@@ -3320,13 +3320,13 @@
       <c r="E75" s="21"/>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="51"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="53"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="2" t="s">
@@ -3387,13 +3387,13 @@
       <c r="E80" s="3"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="49" t="s">
+      <c r="A82" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="51"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="53"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="2" t="s">
@@ -3464,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="20"/>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="54" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3482,10 +3482,17 @@
         <v>2</v>
       </c>
       <c r="E93" s="25"/>
-      <c r="F93" s="48"/>
+      <c r="F93" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A76:E76"/>
     <mergeCell ref="K62:T62"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G14:I14"/>
@@ -3496,13 +3503,6 @@
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="K2:T2"/>
     <mergeCell ref="K13:T13"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A76:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3528,13 +3528,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
@@ -3729,13 +3729,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="34" t="s">
         <v>252</v>
       </c>
@@ -3996,14 +3996,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4023,7 +4023,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="30" t="s">
@@ -4109,7 +4109,7 @@
       <c r="F6" s="37">
         <v>8</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="A7" s="30" t="s">
@@ -4250,14 +4250,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4277,7 +4277,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="30" t="s">
@@ -4363,7 +4363,7 @@
       <c r="F6" s="37">
         <v>15</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" ht="24">
       <c r="A7" s="30" t="s">
@@ -4481,14 +4481,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="58" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="60" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="24">
       <c r="A3" s="33" t="s">
@@ -4655,7 +4655,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="24"/>
@@ -4672,14 +4672,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       <c r="E2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="33" t="s">
@@ -4713,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="33"/>
-      <c r="F3" s="65">
+      <c r="F3" s="49">
         <v>11</v>
       </c>
       <c r="G3" s="32" t="s">
@@ -4732,7 +4732,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="33"/>
-      <c r="F4" s="65"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="32" t="s">
         <v>263</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="33"/>
-      <c r="F5" s="65"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="32" t="s">
         <v>262</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="33"/>
-      <c r="F6" s="65"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="33" t="s">
@@ -4784,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="33"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="33" t="s">
@@ -4800,7 +4800,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="33"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="33" t="s">
@@ -4818,7 +4818,7 @@
       <c r="E9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="32" t="s">
         <v>262</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="42"/>
-      <c r="F10" s="65"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="40"/>
@@ -4875,13 +4875,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="33" t="s">
